--- a/data/outputs/management_altmetric/37.xlsx
+++ b/data/outputs/management_altmetric/37.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE76"/>
+  <dimension ref="A1:CF76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1017,6 +1022,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1254,6 +1262,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1491,6 +1502,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1728,6 +1742,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1983,6 +2000,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2234,6 +2254,9 @@
         <v>0</v>
       </c>
       <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2477,6 +2500,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2723,6 +2749,9 @@
       </c>
       <c r="CE9" t="n">
         <v>1</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -2969,6 +2998,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3216,6 +3248,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3465,6 +3500,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3714,6 +3752,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3973,6 +4014,9 @@
         <v>0</v>
       </c>
       <c r="CE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4216,6 +4260,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4461,6 +4508,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4716,6 +4766,9 @@
         <v>0</v>
       </c>
       <c r="CE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4959,6 +5012,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5206,6 +5262,9 @@
         <v>0</v>
       </c>
       <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5449,6 +5508,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5694,6 +5756,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5940,6 +6005,9 @@
       </c>
       <c r="CE22" t="n">
         <v>0</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -6182,6 +6250,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6427,6 +6498,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6668,6 +6742,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6909,6 +6986,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7150,6 +7230,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7391,6 +7474,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7634,6 +7720,9 @@
         <v>0</v>
       </c>
       <c r="CE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7877,6 +7966,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8126,6 +8218,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8375,6 +8470,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8622,6 +8720,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8875,6 +8976,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9130,6 +9234,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9375,6 +9482,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9622,6 +9732,9 @@
         <v>0</v>
       </c>
       <c r="CE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9865,6 +9978,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10108,6 +10224,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10369,6 +10488,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10615,6 +10737,9 @@
       </c>
       <c r="CE41" t="n">
         <v>0</v>
+      </c>
+      <c r="CF41" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -10855,6 +10980,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11092,6 +11220,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11329,6 +11460,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11579,6 +11713,9 @@
       </c>
       <c r="CE45" t="n">
         <v>0</v>
+      </c>
+      <c r="CF45" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -11825,6 +11962,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12072,6 +12212,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12313,6 +12456,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12554,6 +12700,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12795,6 +12944,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13042,6 +13194,9 @@
         <v>0</v>
       </c>
       <c r="CE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13285,6 +13440,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13532,6 +13690,9 @@
         <v>0</v>
       </c>
       <c r="CE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13776,6 +13937,9 @@
       </c>
       <c r="CE54" t="n">
         <v>0</v>
+      </c>
+      <c r="CF54" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="55">
@@ -14002,6 +14166,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14243,6 +14410,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14494,6 +14664,9 @@
         <v>0</v>
       </c>
       <c r="CE57" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14737,6 +14910,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -14978,6 +15154,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15225,6 +15404,9 @@
         <v>0</v>
       </c>
       <c r="CE60" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15468,6 +15650,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15717,6 +15902,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -15960,6 +16148,9 @@
         <v>0</v>
       </c>
       <c r="CE63" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16203,6 +16394,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16453,6 +16647,9 @@
       </c>
       <c r="CE65" t="n">
         <v>0</v>
+      </c>
+      <c r="CF65" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="66">
@@ -16695,6 +16892,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -16936,6 +17136,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17187,6 +17390,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17430,6 +17636,9 @@
         <v>0</v>
       </c>
       <c r="CE69" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17673,6 +17882,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -17924,6 +18136,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18169,6 +18384,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18412,6 +18630,9 @@
         <v>0</v>
       </c>
       <c r="CE73" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18655,6 +18876,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -18896,6 +19120,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19141,6 +19368,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
